--- a/#source/вывод формул для calc.xlsx
+++ b/#source/вывод формул для calc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\UUSI TIME\#source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\WEB\UUSI-TIME\#source\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -224,10 +224,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$5</c:f>
+              <c:f>Лист1!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>320</c:v>
                 </c:pt>
@@ -235,9 +235,12 @@
                   <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1100</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1440</c:v>
                 </c:pt>
               </c:numCache>
@@ -245,15 +248,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$5</c:f>
+              <c:f>Лист1!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-179</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>57</c:v>
+                <c:pt idx="4">
+                  <c:v>-104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -273,11 +276,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="306396448"/>
-        <c:axId val="306398800"/>
+        <c:axId val="295083664"/>
+        <c:axId val="295082488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="306396448"/>
+        <c:axId val="295083664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -334,12 +337,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306398800"/>
+        <c:crossAx val="295082488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="306398800"/>
+        <c:axId val="295082488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -396,7 +399,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306396448"/>
+        <c:crossAx val="295083664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1007,13 +1010,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1299,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:N5"/>
+  <dimension ref="C1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1336,7 @@
         <v>768</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-179</v>
       </c>
       <c r="H3">
         <v>25</v>
@@ -1349,19 +1352,24 @@
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C4">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5">
         <v>1100</v>
       </c>
-      <c r="D4">
-        <v>57</v>
-      </c>
-      <c r="N4">
+      <c r="N5">
         <f>1024*N3</f>
         <v>728.17777777777781</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6">
         <v>1440</v>
+      </c>
+      <c r="D6">
+        <v>-104</v>
       </c>
     </row>
   </sheetData>
